--- a/hass_land_price_app/hass_land_price_app/all_data_avg_price.xlsx
+++ b/hass_land_price_app/hass_land_price_app/all_data_avg_price.xlsx
@@ -29,7 +29,7 @@
     <t>average_price</t>
   </si>
   <si>
-    <t>quart_year_label</t>
+    <t>Quarter and Year</t>
   </si>
   <si>
     <t>1</t>
